--- a/github-crm/Appdata/TestScriptData.xlsx
+++ b/github-crm/Appdata/TestScriptData.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atjna\OneDrive\Desktop\ADV SEL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE91D67C-B02A-45E1-B3B9-049508562F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F512999-8A95-4B49-9B5B-B7D842AB3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15175A01-C42E-432C-9136-C90138DC7782}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Org" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact" sheetId="2" r:id="rId2"/>
+    <sheet name="Campaign" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>TC_ID</t>
   </si>
@@ -33,27 +31,27 @@
     <t>TestCaseName</t>
   </si>
   <si>
+    <t>HeadCount</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>CreateOrgTest</t>
+  </si>
+  <si>
     <t>OrganizationName</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>CreateOrgTest</t>
-  </si>
-  <si>
-    <t>Qspiders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HeadCount </t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
+    <t>Qspiders_</t>
+  </si>
+  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -64,13 +62,31 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>CreateContactTest</t>
+  </si>
+  <si>
+    <t>Anjali_</t>
+  </si>
+  <si>
+    <t>Campaign_Name</t>
+  </si>
+  <si>
+    <t>CreateCCampaignTest</t>
+  </si>
+  <si>
+    <t>AdvSel_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +94,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +166,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -147,7 +178,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -194,23 +225,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -246,23 +260,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,41 +411,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA62A381-9CC5-435F-A606-6A6E54557F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -460,19 +458,111 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
